--- a/medicine/Enfance/Charlotte_Sjöstrand/Charlotte_Sjöstrand.xlsx
+++ b/medicine/Enfance/Charlotte_Sjöstrand/Charlotte_Sjöstrand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charlotte_Sj%C3%B6strand</t>
+          <t>Charlotte_Sjöstrand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlotte Sjöstrand, née le 16 juin 1976 à West Lafayette (Indiana, États-Unis), est une auteure  et illustratrice franco-suédo-américaine[réf. nécessaire].
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charlotte_Sj%C3%B6strand</t>
+          <t>Charlotte_Sjöstrand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlotte Sjöstrand effectue sa scolarité en Suède et en France. Elle entre à l'École des beaux-arts de Paris et en ressort diplômée. Lors de ses études, elle publie de nombreux livres de lithographie, peint des séries de tableaux sur des thèmes très variés (notamment sur son séjour Erasmus à Athènes), réalise des aquarelles, des sculptures et des bijoux en bois.
 Ses ouvrages, de littérature jeunesse, sont publiés à L'École des loisirs et aux éditions Leduc.s
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charlotte_Sj%C3%B6strand</t>
+          <t>Charlotte_Sjöstrand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cache-Cache, texte de Nadine Brun-Cosme, L'École des loisirs, 2006, 32 p.
 Une patte dans le plâtre, L'École des loisirs, 2006, 32 p.
